--- a/set/payGo/capacity/1:3.5/amount/1.5C0(hub).xlsx
+++ b/set/payGo/capacity/1:3.5/amount/1.5C0(hub).xlsx
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="E2" t="n">
         <v>10.15</v>
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.038</v>
+        <v>0.008</v>
       </c>
       <c r="E3" t="n">
         <v>10.15</v>
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.15</v>
@@ -494,7 +494,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.15</v>
+        <v>0.007</v>
       </c>
       <c r="E5" t="n">
         <v>10.15</v>
@@ -530,11 +530,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="E6" t="n">
         <v>10.15</v>
@@ -556,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="E7" t="n">
         <v>10.15</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.127</v>
+        <v>0.006</v>
       </c>
       <c r="E8" t="n">
         <v>10.15</v>
@@ -618,16 +618,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.187</v>
+        <v>0.008</v>
       </c>
       <c r="E9" t="n">
         <v>10.15</v>
@@ -649,16 +649,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.102</v>
+        <v>0.015</v>
       </c>
       <c r="E10" t="n">
         <v>10.15</v>
@@ -680,16 +680,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.141</v>
+        <v>0.006</v>
       </c>
       <c r="E11" t="n">
         <v>10.15</v>
@@ -711,16 +711,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.062</v>
+        <v>0.012</v>
       </c>
       <c r="E12" t="n">
         <v>10.15</v>
@@ -742,16 +742,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E13" t="n">
         <v>10.15</v>
@@ -773,16 +773,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="E14" t="n">
         <v>10.15</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E15" t="n">
         <v>10.15</v>
@@ -835,7 +835,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E16" t="n">
         <v>10.15</v>
@@ -866,7 +866,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.006</v>
+        <v>1.019</v>
       </c>
       <c r="E17" t="n">
         <v>10.15</v>
@@ -897,7 +897,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E18" t="n">
         <v>10.15</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -959,12 +959,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -990,12 +990,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1021,16 +1021,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E22" t="n">
         <v>10.15</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="E23" t="n">
         <v>10.15</v>
@@ -1083,7 +1083,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E24" t="n">
         <v>10.15</v>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>10.15</v>
@@ -1145,16 +1145,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="E26" t="n">
         <v>10.15</v>
@@ -1176,7 +1176,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E27" t="n">
         <v>10.15</v>
@@ -1212,11 +1212,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E28" t="n">
         <v>10.15</v>
@@ -1238,16 +1238,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E29" t="n">
         <v>10.15</v>
@@ -1269,7 +1269,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E30" t="n">
         <v>10.15</v>
@@ -1300,7 +1300,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E31" t="n">
         <v>10.15</v>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E32" t="n">
         <v>10.15</v>
@@ -1362,12 +1362,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1393,7 +1393,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.007</v>
+        <v>0.027</v>
       </c>
       <c r="E34" t="n">
         <v>10.15</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E36" t="n">
         <v>10.15</v>
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E38" t="n">
         <v>10.15</v>
@@ -1548,7 +1548,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E39" t="n">
         <v>10.15</v>
@@ -1579,7 +1579,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E40" t="n">
         <v>10.15</v>
@@ -1610,12 +1610,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1641,16 +1641,16 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="E42" t="n">
         <v>10.15</v>
@@ -1672,16 +1672,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E43" t="n">
         <v>10.15</v>
@@ -1703,7 +1703,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1734,16 +1734,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E45" t="n">
         <v>10.15</v>
@@ -1770,11 +1770,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="E46" t="n">
         <v>10.15</v>
@@ -1796,16 +1796,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="E47" t="n">
         <v>10.15</v>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.007</v>
+        <v>0.029</v>
       </c>
       <c r="E48" t="n">
         <v>10.15</v>
@@ -1858,12 +1858,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1889,7 +1889,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1920,16 +1920,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.007</v>
+        <v>0.05</v>
       </c>
       <c r="E51" t="n">
         <v>10.15</v>
@@ -1951,16 +1951,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.006</v>
+        <v>0.048</v>
       </c>
       <c r="E52" t="n">
         <v>10.15</v>
@@ -1987,11 +1987,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E53" t="n">
         <v>10.15</v>
@@ -2018,11 +2018,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="E54" t="n">
         <v>10.15</v>
@@ -2044,7 +2044,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="E55" t="n">
         <v>10.15</v>
@@ -2075,16 +2075,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E56" t="n">
         <v>10.15</v>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="E57" t="n">
         <v>10.15</v>
@@ -2137,16 +2137,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.007</v>
+        <v>0.03</v>
       </c>
       <c r="E58" t="n">
         <v>10.15</v>
@@ -2168,16 +2168,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.006</v>
+        <v>0.029</v>
       </c>
       <c r="E59" t="n">
         <v>10.15</v>
@@ -2199,16 +2199,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E60" t="n">
         <v>10.15</v>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E61" t="n">
         <v>10.15</v>
@@ -2266,11 +2266,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E62" t="n">
         <v>10.15</v>
@@ -2323,16 +2323,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="E64" t="n">
         <v>10.15</v>
@@ -2354,16 +2354,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E65" t="n">
         <v>10.15</v>
@@ -2385,16 +2385,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E66" t="n">
         <v>10.15</v>
@@ -2416,7 +2416,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2447,12 +2447,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2478,16 +2478,16 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E69" t="n">
         <v>10.15</v>
@@ -2509,12 +2509,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2540,7 +2540,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.042</v>
+        <v>0.007</v>
       </c>
       <c r="E71" t="n">
         <v>10.15</v>
@@ -2571,16 +2571,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E72" t="n">
         <v>10.15</v>
@@ -2602,16 +2602,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E73" t="n">
         <v>10.15</v>
@@ -2633,16 +2633,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="E74" t="n">
         <v>10.15</v>
@@ -2664,16 +2664,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="E75" t="n">
         <v>10.15</v>
@@ -2695,12 +2695,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2726,12 +2726,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2757,12 +2757,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2788,16 +2788,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E79" t="n">
         <v>10.15</v>
@@ -2819,16 +2819,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E80" t="n">
         <v>10.15</v>
@@ -2850,7 +2850,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E81" t="n">
         <v>10.15</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2912,7 +2912,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2943,7 +2943,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2974,16 +2974,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E85" t="n">
         <v>10.15</v>
@@ -3010,11 +3010,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E86" t="n">
         <v>10.15</v>
@@ -3036,7 +3036,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E87" t="n">
         <v>10.15</v>
@@ -3067,7 +3067,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E88" t="n">
         <v>10.15</v>
@@ -3098,7 +3098,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="E89" t="n">
         <v>10.15</v>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E90" t="n">
         <v>10.15</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E91" t="n">
         <v>10.15</v>
@@ -3191,12 +3191,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3222,16 +3222,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E93" t="n">
         <v>10.15</v>
@@ -3253,7 +3253,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="E94" t="n">
         <v>10.15</v>
@@ -3284,16 +3284,16 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>10.15</v>
@@ -3315,16 +3315,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E96" t="n">
         <v>10.15</v>
@@ -3346,7 +3346,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E97" t="n">
         <v>10.15</v>
@@ -3377,7 +3377,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E98" t="n">
         <v>10.15</v>
@@ -3408,7 +3408,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E99" t="n">
         <v>10.15</v>
@@ -3439,16 +3439,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E100" t="n">
         <v>10.15</v>
@@ -3475,11 +3475,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="E101" t="n">
         <v>10.15</v>
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E102" t="n">
         <v>10.15</v>
@@ -3532,7 +3532,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E103" t="n">
         <v>10.15</v>
@@ -3563,7 +3563,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3625,7 +3625,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E106" t="n">
         <v>10.15</v>
@@ -3656,7 +3656,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E107" t="n">
         <v>10.15</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E110" t="n">
         <v>10.15</v>
@@ -3780,7 +3780,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3811,16 +3811,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E112" t="n">
         <v>10.15</v>
@@ -3842,12 +3842,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3873,7 +3873,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E115" t="n">
         <v>10.15</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3997,7 +3997,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E118" t="n">
         <v>10.15</v>
@@ -4028,7 +4028,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E119" t="n">
         <v>10.15</v>
@@ -4059,16 +4059,16 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E120" t="n">
         <v>10.15</v>
@@ -4090,16 +4090,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E121" t="n">
         <v>10.15</v>
@@ -4121,12 +4121,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4183,12 +4183,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4214,12 +4214,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E126" t="n">
         <v>10.15</v>
@@ -4276,7 +4276,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E127" t="n">
         <v>10.15</v>
@@ -4307,7 +4307,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E128" t="n">
         <v>10.15</v>
@@ -4338,16 +4338,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E129" t="n">
         <v>10.15</v>
@@ -4369,12 +4369,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4400,16 +4400,16 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E131" t="n">
         <v>10.15</v>
@@ -4436,11 +4436,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E132" t="n">
         <v>10.15</v>
@@ -4462,12 +4462,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4493,16 +4493,16 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E134" t="n">
         <v>10.15</v>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E135" t="n">
         <v>10.15</v>
@@ -4555,7 +4555,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E136" t="n">
         <v>10.15</v>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E137" t="n">
         <v>10.15</v>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E138" t="n">
         <v>10.15</v>
@@ -4648,12 +4648,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4679,12 +4679,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -4710,16 +4710,16 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E141" t="n">
         <v>10.15</v>
@@ -4741,7 +4741,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E142" t="n">
         <v>10.15</v>
@@ -4772,7 +4772,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="E143" t="n">
         <v>10.15</v>
@@ -4803,16 +4803,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E144" t="n">
         <v>10.15</v>
@@ -4834,12 +4834,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4865,16 +4865,16 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E146" t="n">
         <v>10.15</v>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4927,16 +4927,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E148" t="n">
         <v>10.15</v>
@@ -4958,7 +4958,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E149" t="n">
         <v>10.15</v>
@@ -4989,16 +4989,16 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E150" t="n">
         <v>10.15</v>
@@ -5020,7 +5020,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E151" t="n">
         <v>10.15</v>
@@ -5051,7 +5051,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5082,12 +5082,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5175,12 +5175,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5211,11 +5211,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E157" t="n">
         <v>10.15</v>
@@ -5237,12 +5237,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5268,12 +5268,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E160" t="n">
         <v>10.15</v>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E161" t="n">
         <v>10.15</v>
@@ -5366,11 +5366,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E162" t="n">
         <v>10.15</v>
@@ -5392,16 +5392,16 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E163" t="n">
         <v>10.15</v>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E164" t="n">
         <v>10.15</v>
@@ -5454,16 +5454,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E165" t="n">
         <v>10.15</v>
@@ -5485,7 +5485,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5516,12 +5516,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5614,11 +5614,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E170" t="n">
         <v>10.15</v>
@@ -5640,16 +5640,16 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E171" t="n">
         <v>10.15</v>
@@ -5671,7 +5671,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5702,16 +5702,16 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="E173" t="n">
         <v>10.15</v>
@@ -5738,11 +5738,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E174" t="n">
         <v>10.15</v>
@@ -5764,7 +5764,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E175" t="n">
         <v>10.15</v>
@@ -5795,7 +5795,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5826,7 +5826,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E177" t="n">
         <v>10.15</v>
@@ -5857,16 +5857,16 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E178" t="n">
         <v>10.15</v>
@@ -5888,12 +5888,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5924,11 +5924,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E180" t="n">
         <v>10.15</v>
@@ -5950,7 +5950,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E181" t="n">
         <v>10.15</v>
@@ -5981,7 +5981,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5990,7 +5990,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="E182" t="n">
         <v>10.15</v>
@@ -6012,16 +6012,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E183" t="n">
         <v>10.15</v>
@@ -6043,12 +6043,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6074,12 +6074,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -6105,7 +6105,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6136,16 +6136,16 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E187" t="n">
         <v>10.15</v>
@@ -6167,7 +6167,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E188" t="n">
         <v>10.15</v>
@@ -6198,16 +6198,16 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E189" t="n">
         <v>10.15</v>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E190" t="n">
         <v>10.15</v>
@@ -6260,16 +6260,16 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E191" t="n">
         <v>10.15</v>
@@ -6291,7 +6291,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6322,12 +6322,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6353,7 +6353,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E194" t="n">
         <v>10.15</v>
@@ -6384,7 +6384,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -6446,7 +6446,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C0</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E197" t="n">
         <v>10.15</v>
@@ -6482,11 +6482,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E198" t="n">
         <v>10.15</v>
@@ -6508,7 +6508,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E199" t="n">
         <v>10.15</v>
@@ -6539,7 +6539,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -6606,11 +6606,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B0</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E202" t="n">
         <v>10.15</v>
